--- a/docs/P4_02_recommandations.xlsx
+++ b/docs/P4_02_recommandations.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="120">
   <si>
     <t>N°</t>
   </si>
@@ -55,18 +55,6 @@
   </si>
   <si>
     <t>Source</t>
-  </si>
-  <si>
-    <t>Présence d'une URL "www" et non "www".</t>
-  </si>
-  <si>
-    <t>N'utiliser qu'un seul type d'URL et rediriger l'autre.</t>
-  </si>
-  <si>
-    <t>Google peut penser qu'il s'agit de deux pages différentes. On doit se focaliser sur une adresse unique.</t>
-  </si>
-  <si>
-    <t>Rediriger par 301 l'une vers l'autre via htaccess</t>
   </si>
   <si>
     <t>Le nom donné aux pages doit être explicite.</t>
@@ -721,7 +709,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -854,6 +842,42 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -883,48 +907,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -950,7 +932,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180109</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>249382</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -1280,94 +1262,94 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="42" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="42" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="42" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="42" t="s">
         <v>76</v>
-      </c>
-      <c r="B8" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="42" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1387,12 +1369,12 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AA75"/>
+  <dimension ref="A1:AA74"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B21" sqref="B21"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="34.9" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1452,10 +1434,10 @@
       <c r="AA1" s="6"/>
     </row>
     <row r="2" spans="1:27" s="11" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="68">
+      <c r="A2" s="54">
         <v>1</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="56" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -1467,67 +1449,67 @@
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:27" s="16" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="69"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="50" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>13</v>
-      </c>
+      <c r="F3" s="14"/>
       <c r="G3" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="16" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="70"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="75" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="13" t="s">
+    <row r="4" spans="1:27" s="20" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="58">
+        <v>2</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:27" s="16" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="59"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="D5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15" t="s">
+      <c r="E5" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="20" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62">
-        <v>2</v>
-      </c>
-      <c r="B5" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="17" t="s">
+    <row r="6" spans="1:27" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" s="59"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
-    </row>
-    <row r="6" spans="1:27" s="16" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="63"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="48" t="s">
+      <c r="D6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="E6" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>101</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>20</v>
@@ -1537,48 +1519,48 @@
       </c>
     </row>
     <row r="7" spans="1:27" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="63"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="48" t="s">
+      <c r="A7" s="59"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="50" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A8" s="63"/>
-      <c r="B8" s="65"/>
+    <row r="8" spans="1:27" s="16" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="59"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="50" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="16" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="63"/>
-      <c r="B9" s="65"/>
+    <row r="9" spans="1:27" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" s="59"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="50" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>26</v>
@@ -1586,469 +1568,459 @@
       <c r="E9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="14" t="s">
         <v>28</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A10" s="63"/>
-      <c r="B10" s="65"/>
+    <row r="10" spans="1:27" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="59"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:27" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A11" s="59"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="G11" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" s="16" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="60"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="63"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="1:27" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A12" s="63"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="16" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="66"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="50" t="s">
+    <row r="13" spans="1:27" s="20" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="58">
+        <v>3</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:27" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A14" s="59"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="D14" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="G14" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" s="16" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="59"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" s="20" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="62">
-        <v>3</v>
-      </c>
-      <c r="B14" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="17" t="s">
+      <c r="D15" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14" t="s">
         <v>38</v>
-      </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" spans="1:27" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A15" s="63"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>40</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:27" s="16" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="63"/>
-      <c r="B16" s="65"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="50" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>104</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="16" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="63"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="50" t="s">
+    <row r="17" spans="1:7" s="20" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="58">
+        <v>4</v>
+      </c>
+      <c r="B17" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="1:7" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A18" s="59"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="E18" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="G17" s="15" t="s">
+      <c r="F18" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="20" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="62">
-        <v>4</v>
-      </c>
-      <c r="B18" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="17" t="s">
+    <row r="19" spans="1:7" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A19" s="24"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19"/>
-    </row>
-    <row r="19" spans="1:7" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A19" s="63"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="74" t="s">
+      <c r="D19" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="F19" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="26" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="58">
+        <v>5</v>
+      </c>
+      <c r="B20" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:7" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A21" s="60"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="22" t="s">
+      <c r="D21" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" s="15" t="s">
+    <row r="22" spans="1:7" s="20" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="58">
+        <v>6</v>
+      </c>
+      <c r="B22" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
+    </row>
+    <row r="23" spans="1:7" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A23" s="59"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="26" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="62">
-        <v>5</v>
-      </c>
-      <c r="B21" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="19"/>
-    </row>
-    <row r="22" spans="1:7" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A22" s="66"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="20" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="62">
-        <v>6</v>
-      </c>
-      <c r="B23" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="19"/>
-    </row>
-    <row r="24" spans="1:7" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A24" s="63"/>
-      <c r="B24" s="65"/>
+    <row r="24" spans="1:7" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A24" s="60"/>
+      <c r="B24" s="63"/>
       <c r="C24" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>58</v>
-      </c>
       <c r="F24" s="13" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="G24" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A25" s="66"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" s="13" t="s">
+    <row r="25" spans="1:7" s="20" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="68">
+        <v>7</v>
+      </c>
+      <c r="B25" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
+    </row>
+    <row r="26" spans="1:7" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A26" s="69"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="20" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="64">
+        <v>8</v>
+      </c>
+      <c r="B27" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="G25" s="15" t="s">
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="32"/>
+    </row>
+    <row r="28" spans="1:7" s="20" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="72"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="20" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="56">
-        <v>7</v>
-      </c>
-      <c r="B26" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="29"/>
-    </row>
-    <row r="27" spans="1:7" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A27" s="57"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="49" t="s">
+    <row r="29" spans="1:7" s="16" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="65"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D29" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="20" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="52">
-        <v>8</v>
-      </c>
-      <c r="B28" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="30" t="s">
+      <c r="E29" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="32"/>
-    </row>
-    <row r="29" spans="1:7" s="20" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="60"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="12" t="s">
+      <c r="F29" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>113</v>
       </c>
       <c r="G29" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="16" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="53"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="12" t="s">
+    <row r="30" spans="1:7" s="20" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="64">
+        <v>9</v>
+      </c>
+      <c r="B30" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="32"/>
+    </row>
+    <row r="31" spans="1:7" s="16" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A31" s="65"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="D31" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="E31" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="F31" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G31" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="20" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="52">
+    <row r="32" spans="1:7" s="20" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="64">
+        <v>10</v>
+      </c>
+      <c r="B32" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="32"/>
+    </row>
+    <row r="33" spans="1:7" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A33" s="65"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G33" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="32"/>
-    </row>
-    <row r="32" spans="1:7" s="16" customFormat="1" ht="75" x14ac:dyDescent="0.2">
-      <c r="A32" s="53"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="20" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="52">
-        <v>10</v>
-      </c>
-      <c r="B33" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="32"/>
-    </row>
-    <row r="34" spans="1:7" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A34" s="53"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="16" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:7" s="16" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="33"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+    </row>
+    <row r="35" spans="1:7" s="16" customFormat="1" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="33"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="35"/>
+      <c r="B35" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>80</v>
+      </c>
       <c r="D35" s="36"/>
       <c r="E35" s="36"/>
       <c r="F35" s="36"/>
       <c r="G35" s="36"/>
     </row>
-    <row r="36" spans="1:7" s="16" customFormat="1" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" s="16" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="33"/>
-      <c r="B36" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="45" t="s">
-        <v>84</v>
-      </c>
+      <c r="B36" s="34"/>
+      <c r="C36" s="35"/>
       <c r="D36" s="36"/>
       <c r="E36" s="36"/>
       <c r="F36" s="36"/>
@@ -2057,7 +2029,7 @@
     <row r="37" spans="1:7" s="16" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="33"/>
       <c r="B37" s="34"/>
-      <c r="C37" s="35"/>
+      <c r="C37" s="47"/>
       <c r="D37" s="36"/>
       <c r="E37" s="36"/>
       <c r="F37" s="36"/>
@@ -2066,7 +2038,7 @@
     <row r="38" spans="1:7" s="16" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="33"/>
       <c r="B38" s="34"/>
-      <c r="C38" s="47"/>
+      <c r="C38" s="35"/>
       <c r="D38" s="36"/>
       <c r="E38" s="36"/>
       <c r="F38" s="36"/>
@@ -2396,65 +2368,55 @@
       <c r="F74" s="36"/>
       <c r="G74" s="36"/>
     </row>
-    <row r="75" spans="1:7" s="16" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="33"/>
-      <c r="B75" s="34"/>
-      <c r="C75" s="35"/>
-      <c r="D75" s="36"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="36"/>
-      <c r="G75" s="36"/>
-    </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A5:A13"/>
-    <mergeCell ref="B5:B13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="B4:B12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1"/>
-    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="G5" r:id="rId2"/>
     <hyperlink ref="G6" r:id="rId3"/>
     <hyperlink ref="G7" r:id="rId4"/>
     <hyperlink ref="G8" r:id="rId5"/>
-    <hyperlink ref="G9" r:id="rId6"/>
-    <hyperlink ref="G13" r:id="rId7"/>
-    <hyperlink ref="G10" r:id="rId8"/>
-    <hyperlink ref="G12" r:id="rId9"/>
+    <hyperlink ref="G12" r:id="rId6"/>
+    <hyperlink ref="G9" r:id="rId7"/>
+    <hyperlink ref="G11" r:id="rId8"/>
+    <hyperlink ref="G14" r:id="rId9"/>
     <hyperlink ref="G15" r:id="rId10"/>
     <hyperlink ref="G16" r:id="rId11"/>
-    <hyperlink ref="G17" r:id="rId12"/>
+    <hyperlink ref="G18" r:id="rId12"/>
     <hyperlink ref="G19" r:id="rId13"/>
-    <hyperlink ref="G20" r:id="rId14"/>
-    <hyperlink ref="G22" r:id="rId15"/>
+    <hyperlink ref="G21" r:id="rId14"/>
+    <hyperlink ref="G23" r:id="rId15"/>
     <hyperlink ref="G24" r:id="rId16"/>
-    <hyperlink ref="G25" r:id="rId17"/>
-    <hyperlink ref="G27" r:id="rId18"/>
-    <hyperlink ref="G29" r:id="rId19" location="La_popularite_du_site"/>
-    <hyperlink ref="G30" r:id="rId20"/>
-    <hyperlink ref="G32" r:id="rId21"/>
-    <hyperlink ref="G34" r:id="rId22"/>
-    <hyperlink ref="C36" r:id="rId23"/>
+    <hyperlink ref="G26" r:id="rId17"/>
+    <hyperlink ref="G28" r:id="rId18" location="La_popularite_du_site"/>
+    <hyperlink ref="G29" r:id="rId19"/>
+    <hyperlink ref="G31" r:id="rId20"/>
+    <hyperlink ref="G33" r:id="rId21"/>
+    <hyperlink ref="C35" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId24"/>
-  <drawing r:id="rId25"/>
+  <pageSetup orientation="landscape" r:id="rId23"/>
+  <drawing r:id="rId24"/>
 </worksheet>
 </file>
--- a/docs/P4_02_recommandations.xlsx
+++ b/docs/P4_02_recommandations.xlsx
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
-    <sheet name="Analyse Accessibilité" sheetId="2" r:id="rId1"/>
-    <sheet name="10 Recommandations SEO" sheetId="1" r:id="rId2"/>
+    <sheet name="10 Recommandations SEO" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="105">
   <si>
     <t>N°</t>
   </si>
@@ -240,72 +239,6 @@
     <t>Suivre l'évolution du/des mot clés : Rien n'est acquis</t>
   </si>
   <si>
-    <t>Check list Accessibilité</t>
-  </si>
-  <si>
-    <t>ACCESSIBILITE</t>
-  </si>
-  <si>
-    <t>Le contraste des couleurs DOIT respecter le niveau AA de WCAG 2.0</t>
-  </si>
-  <si>
-    <t>Page Contact : Le texte du bloc 6 est de la même couleur que son fond.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">L’information véhiculée par la couleur </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>DOIT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> toujours être disponible via un autre moyen</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tous les éléments activables </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>DOIVENT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> pouvoir porter le focus :</t>
-    </r>
-  </si>
-  <si>
-    <t>Source :</t>
-  </si>
-  <si>
-    <t>Check List du MDN - Mozilla</t>
-  </si>
-  <si>
     <t>Source globale :</t>
   </si>
   <si>
@@ -403,27 +336,6 @@
   </si>
   <si>
     <t>Mettre en place une veille SEO à partir des outils proposés par Google et par d'autres sociétés (Alyze.info, Tanaguru etc…).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLOC 3 : Les couleurs de texte #575757 et #FFFFFF sur fond #F3976C ne remplissent pas les conditions du niveau AA de WCAG 2.0 </t>
-  </si>
-  <si>
-    <t>BLOC 3 : Les couleurs de texte #F3976C ne semblent pas assez lisibles, notamment sur fond blanc</t>
-  </si>
-  <si>
-    <t>Certains liens ne semblent pas signaler qu'ils sont activables (cf. header &amp; barre de navigation)</t>
-  </si>
-  <si>
-    <t>L'information d'interaction des liens n'est véhiculée que par les couleurs</t>
-  </si>
-  <si>
-    <t>Tous les éléments de la page ne portent pas le focus de manière visible</t>
-  </si>
-  <si>
-    <t>Présence d'images composées uniquement de texte (cf. citation)</t>
-  </si>
-  <si>
-    <t>Les images avec du texte doivent être évitées.</t>
   </si>
   <si>
     <t>Deux images de la page d'ccueil devraient être redimensionnées en amont</t>
@@ -433,7 +345,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -478,21 +390,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -573,7 +470,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -678,38 +575,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -819,34 +690,77 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -858,54 +772,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1244,129 +1110,6 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="4" tint="-0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.6640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="118.21875" style="40" customWidth="1"/>
-    <col min="3" max="3" width="81.109375" style="40" customWidth="1"/>
-    <col min="4" max="16384" width="10.88671875" style="40"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AA74"/>
@@ -1434,10 +1177,10 @@
       <c r="AA1" s="6"/>
     </row>
     <row r="2" spans="1:27" s="11" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54">
+      <c r="A2" s="65">
         <v>1</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="67" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -1449,10 +1192,10 @@
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:27" s="16" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="55"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="53" t="s">
-        <v>84</v>
+      <c r="A3" s="66"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="48" t="s">
+        <v>76</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>10</v>
@@ -1466,7 +1209,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" s="20" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58">
+      <c r="A4" s="59">
         <v>2</v>
       </c>
       <c r="B4" s="61" t="s">
@@ -1481,16 +1224,16 @@
       <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:27" s="16" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="59"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="62"/>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="44" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>16</v>
@@ -1500,9 +1243,9 @@
       </c>
     </row>
     <row r="6" spans="1:27" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A6" s="59"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="62"/>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="44" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="13" t="s">
@@ -1519,9 +1262,9 @@
       </c>
     </row>
     <row r="7" spans="1:27" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="59"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="62"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="46" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="13" t="s">
@@ -1538,10 +1281,10 @@
       </c>
     </row>
     <row r="8" spans="1:27" s="16" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="59"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="62"/>
-      <c r="C8" s="50" t="s">
-        <v>85</v>
+      <c r="C8" s="46" t="s">
+        <v>77</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>22</v>
@@ -1557,9 +1300,9 @@
       </c>
     </row>
     <row r="9" spans="1:27" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A9" s="59"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="62"/>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="46" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="13" t="s">
@@ -1576,33 +1319,33 @@
       </c>
     </row>
     <row r="10" spans="1:27" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="59"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="62"/>
-      <c r="C10" s="50" t="s">
-        <v>86</v>
+      <c r="C10" s="46" t="s">
+        <v>78</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E10" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:27" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A11" s="60"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:27" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A11" s="59"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="13" t="s">
+      <c r="E11" s="13" t="s">
         <v>90</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>98</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>29</v>
@@ -1612,9 +1355,9 @@
       </c>
     </row>
     <row r="12" spans="1:27" s="16" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="60"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="50" t="s">
+      <c r="A12" s="63"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="46" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="13" t="s">
@@ -1631,7 +1374,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" s="20" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="58">
+      <c r="A13" s="59">
         <v>3</v>
       </c>
       <c r="B13" s="61" t="s">
@@ -1646,16 +1389,16 @@
       <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:27" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A14" s="59"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="62"/>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="46" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>36</v>
@@ -1665,13 +1408,13 @@
       </c>
     </row>
     <row r="15" spans="1:27" s="16" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="59"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="62"/>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="46" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14" t="s">
@@ -1682,26 +1425,26 @@
       </c>
     </row>
     <row r="16" spans="1:27" s="16" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="59"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="62"/>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="20" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="58">
+      <c r="A17" s="59">
         <v>4</v>
       </c>
       <c r="B17" s="61" t="s">
@@ -1716,9 +1459,9 @@
       <c r="G17" s="19"/>
     </row>
     <row r="18" spans="1:7" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A18" s="59"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="62"/>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="47" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -1728,7 +1471,7 @@
         <v>44</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G18" s="22" t="s">
         <v>9</v>
@@ -1737,24 +1480,24 @@
     <row r="19" spans="1:7" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A19" s="24"/>
       <c r="B19" s="25"/>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="46" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>46</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G19" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="26" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="58">
+      <c r="A20" s="59">
         <v>5</v>
       </c>
       <c r="B20" s="61" t="s">
@@ -1769,16 +1512,16 @@
       <c r="G20" s="19"/>
     </row>
     <row r="21" spans="1:7" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A21" s="60"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="49" t="s">
+      <c r="A21" s="63"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="45" t="s">
         <v>48</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>49</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>50</v>
@@ -1788,7 +1531,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" s="20" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="58">
+      <c r="A22" s="59">
         <v>6</v>
       </c>
       <c r="B22" s="61" t="s">
@@ -1803,9 +1546,9 @@
       <c r="G22" s="19"/>
     </row>
     <row r="23" spans="1:7" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A23" s="59"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="62"/>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="46" t="s">
         <v>52</v>
       </c>
       <c r="D23" s="13" t="s">
@@ -1822,29 +1565,29 @@
       </c>
     </row>
     <row r="24" spans="1:7" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A24" s="60"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="50" t="s">
-        <v>88</v>
+      <c r="A24" s="63"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="46" t="s">
+        <v>80</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G24" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="20" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="68">
+      <c r="A25" s="53">
         <v>7</v>
       </c>
-      <c r="B25" s="70" t="s">
+      <c r="B25" s="55" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="27" t="s">
@@ -1856,29 +1599,29 @@
       <c r="G25" s="29"/>
     </row>
     <row r="26" spans="1:7" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A26" s="69"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="49" t="s">
+      <c r="A26" s="54"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="45" t="s">
         <v>58</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>59</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G26" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="20" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="64">
+      <c r="A27" s="49">
         <v>8</v>
       </c>
-      <c r="B27" s="66" t="s">
+      <c r="B27" s="51" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="30" t="s">
@@ -1890,27 +1633,27 @@
       <c r="G27" s="32"/>
     </row>
     <row r="28" spans="1:7" s="20" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="72"/>
-      <c r="B28" s="73"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="58"/>
       <c r="C28" s="12" t="s">
         <v>61</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G28" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="16" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="65"/>
-      <c r="B29" s="67"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="52"/>
       <c r="C29" s="12" t="s">
         <v>62</v>
       </c>
@@ -1928,10 +1671,10 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="20" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="64">
+      <c r="A30" s="49">
         <v>9</v>
       </c>
-      <c r="B30" s="66" t="s">
+      <c r="B30" s="51" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="30" t="s">
@@ -1943,8 +1686,8 @@
       <c r="G30" s="32"/>
     </row>
     <row r="31" spans="1:7" s="16" customFormat="1" ht="75" x14ac:dyDescent="0.2">
-      <c r="A31" s="65"/>
-      <c r="B31" s="67"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="52"/>
       <c r="C31" s="12" t="s">
         <v>67</v>
       </c>
@@ -1955,17 +1698,17 @@
         <v>69</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G31" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="20" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="64">
+      <c r="A32" s="49">
         <v>10</v>
       </c>
-      <c r="B32" s="66" t="s">
+      <c r="B32" s="51" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="30" t="s">
@@ -1977,19 +1720,19 @@
       <c r="G32" s="32"/>
     </row>
     <row r="33" spans="1:7" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A33" s="65"/>
-      <c r="B33" s="67"/>
+      <c r="A33" s="50"/>
+      <c r="B33" s="52"/>
       <c r="C33" s="12" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E33" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>111</v>
       </c>
       <c r="G33" s="15" t="s">
         <v>9</v>
@@ -2006,11 +1749,11 @@
     </row>
     <row r="35" spans="1:7" s="16" customFormat="1" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="33"/>
-      <c r="B35" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" s="45" t="s">
-        <v>80</v>
+      <c r="B35" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>72</v>
       </c>
       <c r="D35" s="36"/>
       <c r="E35" s="36"/>
@@ -2029,7 +1772,7 @@
     <row r="37" spans="1:7" s="16" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="33"/>
       <c r="B37" s="34"/>
-      <c r="C37" s="47"/>
+      <c r="C37" s="43"/>
       <c r="D37" s="36"/>
       <c r="E37" s="36"/>
       <c r="F37" s="36"/>
@@ -2370,6 +2113,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="B4:B12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="A25:A26"/>
@@ -2378,18 +2133,6 @@
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="B4:B12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1"/>

--- a/docs/P4_02_recommandations.xlsx
+++ b/docs/P4_02_recommandations.xlsx
@@ -1114,10 +1114,10 @@
   </sheetPr>
   <dimension ref="A1:AA74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B21" sqref="B21"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="A3:XFD3"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="34.9" customHeight="1" x14ac:dyDescent="0.2"/>
